--- a/Öğrenci_Soru_Sayısı_TYT_AYT_Net_V9.xlsx
+++ b/Öğrenci_Soru_Sayısı_TYT_AYT_Net_V9.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bulen\Desktop\GITHUB ANA KLASOR\Student_Work_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bulen\Desktop\Rehberlik\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4535FBD-1167-484D-A090-E59DF4B91132}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{416FDFEA-9BC7-49C4-BD89-C42294A8A8AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{188079E3-1FB8-4C3A-A4C1-FF4FF04EE122}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1314" uniqueCount="86">
   <si>
     <t>Geometri</t>
   </si>
@@ -1208,11 +1208,36 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="20" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="21" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1244,6 +1269,9 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1254,38 +1282,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="20" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="21" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6533,8 +6533,8 @@
   <dimension ref="A1:P183"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A127" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U173" sqref="U173"/>
+      <pane ySplit="1" topLeftCell="A172" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7060,7 +7060,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="28">
-        <v>111300</v>
+        <v>45557</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>31</v>
@@ -7111,7 +7111,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="28">
-        <v>111300</v>
+        <v>45557</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>31</v>
@@ -7162,7 +7162,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="28">
-        <v>111300</v>
+        <v>45557</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>31</v>
@@ -7213,7 +7213,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="28">
-        <v>111300</v>
+        <v>45557</v>
       </c>
       <c r="B14" s="12" t="s">
         <v>31</v>
@@ -7264,7 +7264,7 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="28">
-        <v>111300</v>
+        <v>45557</v>
       </c>
       <c r="B15" s="12" t="s">
         <v>31</v>
@@ -7315,7 +7315,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="28">
-        <v>111300</v>
+        <v>45557</v>
       </c>
       <c r="B16" s="12" t="s">
         <v>31</v>
@@ -7366,7 +7366,7 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="28">
-        <v>111300</v>
+        <v>45557</v>
       </c>
       <c r="B17" s="12" t="s">
         <v>31</v>
@@ -7417,7 +7417,7 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="28">
-        <v>111300</v>
+        <v>45557</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>31</v>
@@ -7468,7 +7468,7 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="28">
-        <v>111300</v>
+        <v>45557</v>
       </c>
       <c r="B19" s="12" t="s">
         <v>31</v>
@@ -8538,19 +8538,19 @@
       </c>
     </row>
     <row r="40" spans="1:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="171">
+      <c r="A40" s="155">
         <v>45580</v>
       </c>
-      <c r="B40" s="172" t="s">
+      <c r="B40" s="156" t="s">
         <v>32</v>
       </c>
-      <c r="C40" s="173">
+      <c r="C40" s="157">
         <v>3</v>
       </c>
-      <c r="D40" s="174">
-        <v>1</v>
-      </c>
-      <c r="E40" s="175" t="s">
+      <c r="D40" s="158">
+        <v>1</v>
+      </c>
+      <c r="E40" s="159" t="s">
         <v>21</v>
       </c>
       <c r="F40" s="151">
@@ -8589,19 +8589,19 @@
       </c>
     </row>
     <row r="41" spans="1:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="171">
+      <c r="A41" s="155">
         <v>45580</v>
       </c>
-      <c r="B41" s="172" t="s">
+      <c r="B41" s="156" t="s">
         <v>32</v>
       </c>
-      <c r="C41" s="173">
+      <c r="C41" s="157">
         <v>3</v>
       </c>
-      <c r="D41" s="174">
-        <v>1</v>
-      </c>
-      <c r="E41" s="175" t="s">
+      <c r="D41" s="158">
+        <v>1</v>
+      </c>
+      <c r="E41" s="159" t="s">
         <v>22</v>
       </c>
       <c r="F41" s="151">
@@ -8640,19 +8640,19 @@
       </c>
     </row>
     <row r="42" spans="1:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="171">
+      <c r="A42" s="155">
         <v>45580</v>
       </c>
-      <c r="B42" s="172" t="s">
+      <c r="B42" s="156" t="s">
         <v>32</v>
       </c>
-      <c r="C42" s="173">
+      <c r="C42" s="157">
         <v>3</v>
       </c>
-      <c r="D42" s="174">
-        <v>1</v>
-      </c>
-      <c r="E42" s="175" t="s">
+      <c r="D42" s="158">
+        <v>1</v>
+      </c>
+      <c r="E42" s="159" t="s">
         <v>23</v>
       </c>
       <c r="F42" s="151">
@@ -8691,19 +8691,19 @@
       </c>
     </row>
     <row r="43" spans="1:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="171">
+      <c r="A43" s="155">
         <v>45580</v>
       </c>
-      <c r="B43" s="172" t="s">
+      <c r="B43" s="156" t="s">
         <v>32</v>
       </c>
-      <c r="C43" s="173">
+      <c r="C43" s="157">
         <v>3</v>
       </c>
-      <c r="D43" s="174">
-        <v>1</v>
-      </c>
-      <c r="E43" s="175" t="s">
+      <c r="D43" s="158">
+        <v>1</v>
+      </c>
+      <c r="E43" s="159" t="s">
         <v>24</v>
       </c>
       <c r="F43" s="151">
@@ -8742,19 +8742,19 @@
       </c>
     </row>
     <row r="44" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="171">
+      <c r="A44" s="155">
         <v>45580</v>
       </c>
-      <c r="B44" s="172" t="s">
+      <c r="B44" s="156" t="s">
         <v>32</v>
       </c>
-      <c r="C44" s="173">
+      <c r="C44" s="157">
         <v>3</v>
       </c>
-      <c r="D44" s="174">
-        <v>1</v>
-      </c>
-      <c r="E44" s="175" t="s">
+      <c r="D44" s="158">
+        <v>1</v>
+      </c>
+      <c r="E44" s="159" t="s">
         <v>25</v>
       </c>
       <c r="F44" s="151">
@@ -8793,19 +8793,19 @@
       </c>
     </row>
     <row r="45" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="171">
+      <c r="A45" s="155">
         <v>45580</v>
       </c>
-      <c r="B45" s="172" t="s">
+      <c r="B45" s="156" t="s">
         <v>32</v>
       </c>
-      <c r="C45" s="173">
+      <c r="C45" s="157">
         <v>3</v>
       </c>
-      <c r="D45" s="174">
-        <v>1</v>
-      </c>
-      <c r="E45" s="175" t="s">
+      <c r="D45" s="158">
+        <v>1</v>
+      </c>
+      <c r="E45" s="159" t="s">
         <v>26</v>
       </c>
       <c r="F45" s="151">
@@ -8844,19 +8844,19 @@
       </c>
     </row>
     <row r="46" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="171">
+      <c r="A46" s="155">
         <v>45580</v>
       </c>
-      <c r="B46" s="172" t="s">
+      <c r="B46" s="156" t="s">
         <v>32</v>
       </c>
-      <c r="C46" s="173">
+      <c r="C46" s="157">
         <v>3</v>
       </c>
-      <c r="D46" s="174">
-        <v>1</v>
-      </c>
-      <c r="E46" s="175" t="s">
+      <c r="D46" s="158">
+        <v>1</v>
+      </c>
+      <c r="E46" s="159" t="s">
         <v>27</v>
       </c>
       <c r="F46" s="151">
@@ -8895,19 +8895,19 @@
       </c>
     </row>
     <row r="47" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="171">
+      <c r="A47" s="155">
         <v>45580</v>
       </c>
-      <c r="B47" s="172" t="s">
+      <c r="B47" s="156" t="s">
         <v>32</v>
       </c>
-      <c r="C47" s="173">
+      <c r="C47" s="157">
         <v>3</v>
       </c>
-      <c r="D47" s="174">
-        <v>1</v>
-      </c>
-      <c r="E47" s="175" t="s">
+      <c r="D47" s="158">
+        <v>1</v>
+      </c>
+      <c r="E47" s="159" t="s">
         <v>28</v>
       </c>
       <c r="F47" s="151">
@@ -8946,19 +8946,19 @@
       </c>
     </row>
     <row r="48" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="171">
+      <c r="A48" s="155">
         <v>45580</v>
       </c>
-      <c r="B48" s="172" t="s">
+      <c r="B48" s="156" t="s">
         <v>32</v>
       </c>
-      <c r="C48" s="173">
+      <c r="C48" s="157">
         <v>3</v>
       </c>
-      <c r="D48" s="174">
-        <v>1</v>
-      </c>
-      <c r="E48" s="176" t="s">
+      <c r="D48" s="158">
+        <v>1</v>
+      </c>
+      <c r="E48" s="160" t="s">
         <v>29</v>
       </c>
       <c r="F48" s="151">
@@ -8997,19 +8997,19 @@
       </c>
     </row>
     <row r="49" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="171">
+      <c r="A49" s="155">
         <v>45580</v>
       </c>
-      <c r="B49" s="172" t="s">
+      <c r="B49" s="156" t="s">
         <v>32</v>
       </c>
-      <c r="C49" s="173">
+      <c r="C49" s="157">
         <v>3</v>
       </c>
-      <c r="D49" s="174">
-        <v>1</v>
-      </c>
-      <c r="E49" s="176" t="s">
+      <c r="D49" s="158">
+        <v>1</v>
+      </c>
+      <c r="E49" s="160" t="s">
         <v>30</v>
       </c>
       <c r="F49" s="151">
@@ -14563,16 +14563,16 @@
       <c r="E162" s="99" t="s">
         <v>21</v>
       </c>
-      <c r="F162" s="177"/>
-      <c r="G162" s="177"/>
-      <c r="H162" s="177"/>
-      <c r="I162" s="177"/>
-      <c r="J162" s="177"/>
-      <c r="K162" s="177"/>
-      <c r="L162" s="177"/>
-      <c r="M162" s="177"/>
-      <c r="N162" s="177"/>
-      <c r="O162" s="177"/>
+      <c r="F162" s="161"/>
+      <c r="G162" s="161"/>
+      <c r="H162" s="161"/>
+      <c r="I162" s="161"/>
+      <c r="J162" s="161"/>
+      <c r="K162" s="161"/>
+      <c r="L162" s="161"/>
+      <c r="M162" s="161"/>
+      <c r="N162" s="161"/>
+      <c r="O162" s="161"/>
       <c r="P162" s="100">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -14592,16 +14592,16 @@
       <c r="E163" s="99" t="s">
         <v>22</v>
       </c>
-      <c r="F163" s="177"/>
-      <c r="G163" s="177"/>
-      <c r="H163" s="177"/>
-      <c r="I163" s="177"/>
-      <c r="J163" s="177"/>
-      <c r="K163" s="177"/>
-      <c r="L163" s="177"/>
-      <c r="M163" s="177"/>
-      <c r="N163" s="177"/>
-      <c r="O163" s="177"/>
+      <c r="F163" s="161"/>
+      <c r="G163" s="161"/>
+      <c r="H163" s="161"/>
+      <c r="I163" s="161"/>
+      <c r="J163" s="161"/>
+      <c r="K163" s="161"/>
+      <c r="L163" s="161"/>
+      <c r="M163" s="161"/>
+      <c r="N163" s="161"/>
+      <c r="O163" s="161"/>
       <c r="P163" s="100">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -14621,16 +14621,16 @@
       <c r="E164" s="99" t="s">
         <v>23</v>
       </c>
-      <c r="F164" s="177"/>
-      <c r="G164" s="177"/>
-      <c r="H164" s="177"/>
-      <c r="I164" s="177"/>
-      <c r="J164" s="177"/>
-      <c r="K164" s="177"/>
-      <c r="L164" s="177"/>
-      <c r="M164" s="177"/>
-      <c r="N164" s="177"/>
-      <c r="O164" s="177"/>
+      <c r="F164" s="161"/>
+      <c r="G164" s="161"/>
+      <c r="H164" s="161"/>
+      <c r="I164" s="161"/>
+      <c r="J164" s="161"/>
+      <c r="K164" s="161"/>
+      <c r="L164" s="161"/>
+      <c r="M164" s="161"/>
+      <c r="N164" s="161"/>
+      <c r="O164" s="161"/>
       <c r="P164" s="100">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -14650,16 +14650,16 @@
       <c r="E165" s="99" t="s">
         <v>24</v>
       </c>
-      <c r="F165" s="177"/>
-      <c r="G165" s="177"/>
-      <c r="H165" s="177"/>
-      <c r="I165" s="177"/>
-      <c r="J165" s="177"/>
-      <c r="K165" s="177"/>
-      <c r="L165" s="177"/>
-      <c r="M165" s="177"/>
-      <c r="N165" s="177"/>
-      <c r="O165" s="177"/>
+      <c r="F165" s="161"/>
+      <c r="G165" s="161"/>
+      <c r="H165" s="161"/>
+      <c r="I165" s="161"/>
+      <c r="J165" s="161"/>
+      <c r="K165" s="161"/>
+      <c r="L165" s="161"/>
+      <c r="M165" s="161"/>
+      <c r="N165" s="161"/>
+      <c r="O165" s="161"/>
       <c r="P165" s="100">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -14679,16 +14679,16 @@
       <c r="E166" s="99" t="s">
         <v>25</v>
       </c>
-      <c r="F166" s="177"/>
-      <c r="G166" s="177"/>
-      <c r="H166" s="177"/>
-      <c r="I166" s="177"/>
-      <c r="J166" s="177"/>
-      <c r="K166" s="177"/>
-      <c r="L166" s="177"/>
-      <c r="M166" s="177"/>
-      <c r="N166" s="177"/>
-      <c r="O166" s="177"/>
+      <c r="F166" s="161"/>
+      <c r="G166" s="161"/>
+      <c r="H166" s="161"/>
+      <c r="I166" s="161"/>
+      <c r="J166" s="161"/>
+      <c r="K166" s="161"/>
+      <c r="L166" s="161"/>
+      <c r="M166" s="161"/>
+      <c r="N166" s="161"/>
+      <c r="O166" s="161"/>
       <c r="P166" s="100">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -14708,16 +14708,16 @@
       <c r="E167" s="99" t="s">
         <v>26</v>
       </c>
-      <c r="F167" s="177"/>
-      <c r="G167" s="177"/>
-      <c r="H167" s="177"/>
-      <c r="I167" s="177"/>
-      <c r="J167" s="177"/>
-      <c r="K167" s="177"/>
-      <c r="L167" s="177"/>
-      <c r="M167" s="177"/>
-      <c r="N167" s="177"/>
-      <c r="O167" s="177"/>
+      <c r="F167" s="161"/>
+      <c r="G167" s="161"/>
+      <c r="H167" s="161"/>
+      <c r="I167" s="161"/>
+      <c r="J167" s="161"/>
+      <c r="K167" s="161"/>
+      <c r="L167" s="161"/>
+      <c r="M167" s="161"/>
+      <c r="N167" s="161"/>
+      <c r="O167" s="161"/>
       <c r="P167" s="100">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -14737,16 +14737,16 @@
       <c r="E168" s="99" t="s">
         <v>27</v>
       </c>
-      <c r="F168" s="177"/>
-      <c r="G168" s="177"/>
-      <c r="H168" s="177"/>
-      <c r="I168" s="177"/>
-      <c r="J168" s="177"/>
-      <c r="K168" s="177"/>
-      <c r="L168" s="177"/>
-      <c r="M168" s="177"/>
-      <c r="N168" s="177"/>
-      <c r="O168" s="177"/>
+      <c r="F168" s="161"/>
+      <c r="G168" s="161"/>
+      <c r="H168" s="161"/>
+      <c r="I168" s="161"/>
+      <c r="J168" s="161"/>
+      <c r="K168" s="161"/>
+      <c r="L168" s="161"/>
+      <c r="M168" s="161"/>
+      <c r="N168" s="161"/>
+      <c r="O168" s="161"/>
       <c r="P168" s="100">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -14766,16 +14766,16 @@
       <c r="E169" s="99" t="s">
         <v>28</v>
       </c>
-      <c r="F169" s="177"/>
-      <c r="G169" s="177"/>
-      <c r="H169" s="177"/>
-      <c r="I169" s="177"/>
-      <c r="J169" s="177"/>
-      <c r="K169" s="177"/>
-      <c r="L169" s="177"/>
-      <c r="M169" s="177"/>
-      <c r="N169" s="177"/>
-      <c r="O169" s="177"/>
+      <c r="F169" s="161"/>
+      <c r="G169" s="161"/>
+      <c r="H169" s="161"/>
+      <c r="I169" s="161"/>
+      <c r="J169" s="161"/>
+      <c r="K169" s="161"/>
+      <c r="L169" s="161"/>
+      <c r="M169" s="161"/>
+      <c r="N169" s="161"/>
+      <c r="O169" s="161"/>
       <c r="P169" s="100">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -14795,16 +14795,16 @@
       <c r="E170" s="101" t="s">
         <v>29</v>
       </c>
-      <c r="F170" s="177"/>
-      <c r="G170" s="177"/>
-      <c r="H170" s="177"/>
-      <c r="I170" s="177"/>
-      <c r="J170" s="177"/>
-      <c r="K170" s="177"/>
-      <c r="L170" s="177"/>
-      <c r="M170" s="177"/>
-      <c r="N170" s="177"/>
-      <c r="O170" s="177"/>
+      <c r="F170" s="161"/>
+      <c r="G170" s="161"/>
+      <c r="H170" s="161"/>
+      <c r="I170" s="161"/>
+      <c r="J170" s="161"/>
+      <c r="K170" s="161"/>
+      <c r="L170" s="161"/>
+      <c r="M170" s="161"/>
+      <c r="N170" s="161"/>
+      <c r="O170" s="161"/>
       <c r="P170" s="100">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -14824,16 +14824,16 @@
       <c r="E171" s="101" t="s">
         <v>30</v>
       </c>
-      <c r="F171" s="177"/>
-      <c r="G171" s="177"/>
-      <c r="H171" s="177"/>
-      <c r="I171" s="177"/>
-      <c r="J171" s="177"/>
-      <c r="K171" s="177"/>
-      <c r="L171" s="177"/>
-      <c r="M171" s="177"/>
-      <c r="N171" s="177"/>
-      <c r="O171" s="177"/>
+      <c r="F171" s="161"/>
+      <c r="G171" s="161"/>
+      <c r="H171" s="161"/>
+      <c r="I171" s="161"/>
+      <c r="J171" s="161"/>
+      <c r="K171" s="161"/>
+      <c r="L171" s="161"/>
+      <c r="M171" s="161"/>
+      <c r="N171" s="161"/>
+      <c r="O171" s="161"/>
       <c r="P171" s="100">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -14853,336 +14853,336 @@
       <c r="E172" s="99" t="s">
         <v>78</v>
       </c>
-      <c r="F172" s="177"/>
-      <c r="G172" s="177"/>
-      <c r="H172" s="177"/>
-      <c r="I172" s="177"/>
-      <c r="J172" s="177"/>
-      <c r="K172" s="177"/>
-      <c r="L172" s="177"/>
-      <c r="M172" s="177"/>
-      <c r="N172" s="177"/>
-      <c r="O172" s="177"/>
+      <c r="F172" s="161"/>
+      <c r="G172" s="161"/>
+      <c r="H172" s="161"/>
+      <c r="I172" s="161"/>
+      <c r="J172" s="161"/>
+      <c r="K172" s="161"/>
+      <c r="L172" s="161"/>
+      <c r="M172" s="161"/>
+      <c r="N172" s="161"/>
+      <c r="O172" s="161"/>
       <c r="P172" s="100">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A173" s="178">
+      <c r="A173" s="162">
         <v>45679</v>
       </c>
-      <c r="B173" s="179" t="s">
+      <c r="B173" s="163" t="s">
         <v>79</v>
       </c>
-      <c r="C173" s="180">
+      <c r="C173" s="164">
         <v>4</v>
       </c>
-      <c r="D173" s="179"/>
-      <c r="E173" s="181" t="s">
+      <c r="D173" s="163"/>
+      <c r="E173" s="165" t="s">
         <v>21</v>
       </c>
-      <c r="F173" s="182"/>
-      <c r="G173" s="182"/>
-      <c r="H173" s="182"/>
-      <c r="I173" s="182"/>
-      <c r="J173" s="182"/>
-      <c r="K173" s="182"/>
-      <c r="L173" s="182"/>
-      <c r="M173" s="182"/>
-      <c r="N173" s="182"/>
-      <c r="O173" s="182"/>
-      <c r="P173" s="180">
+      <c r="F173" s="166"/>
+      <c r="G173" s="166"/>
+      <c r="H173" s="166"/>
+      <c r="I173" s="166"/>
+      <c r="J173" s="166"/>
+      <c r="K173" s="166"/>
+      <c r="L173" s="166"/>
+      <c r="M173" s="166"/>
+      <c r="N173" s="166"/>
+      <c r="O173" s="166"/>
+      <c r="P173" s="164">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A174" s="178">
+      <c r="A174" s="162">
         <v>45679</v>
       </c>
-      <c r="B174" s="179" t="s">
+      <c r="B174" s="163" t="s">
         <v>79</v>
       </c>
-      <c r="C174" s="180">
+      <c r="C174" s="164">
         <v>4</v>
       </c>
-      <c r="D174" s="179"/>
-      <c r="E174" s="181" t="s">
+      <c r="D174" s="163"/>
+      <c r="E174" s="165" t="s">
         <v>22</v>
       </c>
-      <c r="F174" s="182"/>
-      <c r="G174" s="182"/>
-      <c r="H174" s="182"/>
-      <c r="I174" s="182"/>
-      <c r="J174" s="182"/>
-      <c r="K174" s="182"/>
-      <c r="L174" s="182"/>
-      <c r="M174" s="182"/>
-      <c r="N174" s="182"/>
-      <c r="O174" s="182"/>
-      <c r="P174" s="180">
+      <c r="F174" s="166"/>
+      <c r="G174" s="166"/>
+      <c r="H174" s="166"/>
+      <c r="I174" s="166"/>
+      <c r="J174" s="166"/>
+      <c r="K174" s="166"/>
+      <c r="L174" s="166"/>
+      <c r="M174" s="166"/>
+      <c r="N174" s="166"/>
+      <c r="O174" s="166"/>
+      <c r="P174" s="164">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A175" s="178">
+      <c r="A175" s="162">
         <v>45679</v>
       </c>
-      <c r="B175" s="179" t="s">
+      <c r="B175" s="163" t="s">
         <v>79</v>
       </c>
-      <c r="C175" s="180">
+      <c r="C175" s="164">
         <v>4</v>
       </c>
-      <c r="D175" s="179"/>
-      <c r="E175" s="181" t="s">
+      <c r="D175" s="163"/>
+      <c r="E175" s="165" t="s">
         <v>23</v>
       </c>
-      <c r="F175" s="182"/>
-      <c r="G175" s="182"/>
-      <c r="H175" s="182"/>
-      <c r="I175" s="182"/>
-      <c r="J175" s="182"/>
-      <c r="K175" s="182"/>
-      <c r="L175" s="182"/>
-      <c r="M175" s="182"/>
-      <c r="N175" s="182"/>
-      <c r="O175" s="182"/>
-      <c r="P175" s="180">
+      <c r="F175" s="166"/>
+      <c r="G175" s="166"/>
+      <c r="H175" s="166"/>
+      <c r="I175" s="166"/>
+      <c r="J175" s="166"/>
+      <c r="K175" s="166"/>
+      <c r="L175" s="166"/>
+      <c r="M175" s="166"/>
+      <c r="N175" s="166"/>
+      <c r="O175" s="166"/>
+      <c r="P175" s="164">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A176" s="178">
+      <c r="A176" s="162">
         <v>45679</v>
       </c>
-      <c r="B176" s="179" t="s">
+      <c r="B176" s="163" t="s">
         <v>79</v>
       </c>
-      <c r="C176" s="180">
+      <c r="C176" s="164">
         <v>4</v>
       </c>
-      <c r="D176" s="179"/>
-      <c r="E176" s="181" t="s">
+      <c r="D176" s="163"/>
+      <c r="E176" s="165" t="s">
         <v>24</v>
       </c>
-      <c r="F176" s="182"/>
-      <c r="G176" s="182"/>
-      <c r="H176" s="182"/>
-      <c r="I176" s="182"/>
-      <c r="J176" s="182"/>
-      <c r="K176" s="182"/>
-      <c r="L176" s="182"/>
-      <c r="M176" s="182"/>
-      <c r="N176" s="182"/>
-      <c r="O176" s="182"/>
-      <c r="P176" s="180">
+      <c r="F176" s="166"/>
+      <c r="G176" s="166"/>
+      <c r="H176" s="166"/>
+      <c r="I176" s="166"/>
+      <c r="J176" s="166"/>
+      <c r="K176" s="166"/>
+      <c r="L176" s="166"/>
+      <c r="M176" s="166"/>
+      <c r="N176" s="166"/>
+      <c r="O176" s="166"/>
+      <c r="P176" s="164">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A177" s="178">
+      <c r="A177" s="162">
         <v>45679</v>
       </c>
-      <c r="B177" s="179" t="s">
+      <c r="B177" s="163" t="s">
         <v>79</v>
       </c>
-      <c r="C177" s="180">
+      <c r="C177" s="164">
         <v>4</v>
       </c>
-      <c r="D177" s="179"/>
-      <c r="E177" s="181" t="s">
+      <c r="D177" s="163"/>
+      <c r="E177" s="165" t="s">
         <v>25</v>
       </c>
-      <c r="F177" s="182"/>
-      <c r="G177" s="182"/>
-      <c r="H177" s="182"/>
-      <c r="I177" s="182"/>
-      <c r="J177" s="182"/>
-      <c r="K177" s="182"/>
-      <c r="L177" s="182"/>
-      <c r="M177" s="182"/>
-      <c r="N177" s="182"/>
-      <c r="O177" s="182"/>
-      <c r="P177" s="180">
+      <c r="F177" s="166"/>
+      <c r="G177" s="166"/>
+      <c r="H177" s="166"/>
+      <c r="I177" s="166"/>
+      <c r="J177" s="166"/>
+      <c r="K177" s="166"/>
+      <c r="L177" s="166"/>
+      <c r="M177" s="166"/>
+      <c r="N177" s="166"/>
+      <c r="O177" s="166"/>
+      <c r="P177" s="164">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A178" s="178">
+      <c r="A178" s="162">
         <v>45679</v>
       </c>
-      <c r="B178" s="179" t="s">
+      <c r="B178" s="163" t="s">
         <v>79</v>
       </c>
-      <c r="C178" s="180">
+      <c r="C178" s="164">
         <v>4</v>
       </c>
-      <c r="D178" s="179"/>
-      <c r="E178" s="181" t="s">
+      <c r="D178" s="163"/>
+      <c r="E178" s="165" t="s">
         <v>26</v>
       </c>
-      <c r="F178" s="182"/>
-      <c r="G178" s="182"/>
-      <c r="H178" s="182"/>
-      <c r="I178" s="182"/>
-      <c r="J178" s="182"/>
-      <c r="K178" s="182"/>
-      <c r="L178" s="182"/>
-      <c r="M178" s="182"/>
-      <c r="N178" s="182"/>
-      <c r="O178" s="182"/>
-      <c r="P178" s="180">
+      <c r="F178" s="166"/>
+      <c r="G178" s="166"/>
+      <c r="H178" s="166"/>
+      <c r="I178" s="166"/>
+      <c r="J178" s="166"/>
+      <c r="K178" s="166"/>
+      <c r="L178" s="166"/>
+      <c r="M178" s="166"/>
+      <c r="N178" s="166"/>
+      <c r="O178" s="166"/>
+      <c r="P178" s="164">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A179" s="178">
+      <c r="A179" s="162">
         <v>45679</v>
       </c>
-      <c r="B179" s="179" t="s">
+      <c r="B179" s="163" t="s">
         <v>79</v>
       </c>
-      <c r="C179" s="180">
+      <c r="C179" s="164">
         <v>4</v>
       </c>
-      <c r="D179" s="179"/>
-      <c r="E179" s="181" t="s">
+      <c r="D179" s="163"/>
+      <c r="E179" s="165" t="s">
         <v>27</v>
       </c>
-      <c r="F179" s="182"/>
-      <c r="G179" s="182"/>
-      <c r="H179" s="182"/>
-      <c r="I179" s="182"/>
-      <c r="J179" s="182"/>
-      <c r="K179" s="182"/>
-      <c r="L179" s="182"/>
-      <c r="M179" s="182"/>
-      <c r="N179" s="182"/>
-      <c r="O179" s="182"/>
-      <c r="P179" s="180">
+      <c r="F179" s="166"/>
+      <c r="G179" s="166"/>
+      <c r="H179" s="166"/>
+      <c r="I179" s="166"/>
+      <c r="J179" s="166"/>
+      <c r="K179" s="166"/>
+      <c r="L179" s="166"/>
+      <c r="M179" s="166"/>
+      <c r="N179" s="166"/>
+      <c r="O179" s="166"/>
+      <c r="P179" s="164">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A180" s="178">
+      <c r="A180" s="162">
         <v>45679</v>
       </c>
-      <c r="B180" s="179" t="s">
+      <c r="B180" s="163" t="s">
         <v>79</v>
       </c>
-      <c r="C180" s="180">
+      <c r="C180" s="164">
         <v>4</v>
       </c>
-      <c r="D180" s="179"/>
-      <c r="E180" s="181" t="s">
+      <c r="D180" s="163"/>
+      <c r="E180" s="165" t="s">
         <v>28</v>
       </c>
-      <c r="F180" s="182"/>
-      <c r="G180" s="182"/>
-      <c r="H180" s="182"/>
-      <c r="I180" s="182"/>
-      <c r="J180" s="182"/>
-      <c r="K180" s="182"/>
-      <c r="L180" s="182"/>
-      <c r="M180" s="182"/>
-      <c r="N180" s="182"/>
-      <c r="O180" s="182"/>
-      <c r="P180" s="180">
+      <c r="F180" s="166"/>
+      <c r="G180" s="166"/>
+      <c r="H180" s="166"/>
+      <c r="I180" s="166"/>
+      <c r="J180" s="166"/>
+      <c r="K180" s="166"/>
+      <c r="L180" s="166"/>
+      <c r="M180" s="166"/>
+      <c r="N180" s="166"/>
+      <c r="O180" s="166"/>
+      <c r="P180" s="164">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A181" s="178">
+      <c r="A181" s="162">
         <v>45679</v>
       </c>
-      <c r="B181" s="179" t="s">
+      <c r="B181" s="163" t="s">
         <v>79</v>
       </c>
-      <c r="C181" s="180">
+      <c r="C181" s="164">
         <v>4</v>
       </c>
-      <c r="D181" s="179"/>
-      <c r="E181" s="183" t="s">
+      <c r="D181" s="163"/>
+      <c r="E181" s="167" t="s">
         <v>29</v>
       </c>
-      <c r="F181" s="182"/>
-      <c r="G181" s="182"/>
-      <c r="H181" s="182"/>
-      <c r="I181" s="182"/>
-      <c r="J181" s="182"/>
-      <c r="K181" s="182"/>
-      <c r="L181" s="182"/>
-      <c r="M181" s="182"/>
-      <c r="N181" s="182"/>
-      <c r="O181" s="182"/>
-      <c r="P181" s="180">
+      <c r="F181" s="166"/>
+      <c r="G181" s="166"/>
+      <c r="H181" s="166"/>
+      <c r="I181" s="166"/>
+      <c r="J181" s="166"/>
+      <c r="K181" s="166"/>
+      <c r="L181" s="166"/>
+      <c r="M181" s="166"/>
+      <c r="N181" s="166"/>
+      <c r="O181" s="166"/>
+      <c r="P181" s="164">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A182" s="178">
+      <c r="A182" s="162">
         <v>45679</v>
       </c>
-      <c r="B182" s="179" t="s">
+      <c r="B182" s="163" t="s">
         <v>79</v>
       </c>
-      <c r="C182" s="180">
+      <c r="C182" s="164">
         <v>4</v>
       </c>
-      <c r="D182" s="179"/>
-      <c r="E182" s="183" t="s">
+      <c r="D182" s="163"/>
+      <c r="E182" s="167" t="s">
         <v>30</v>
       </c>
-      <c r="F182" s="182"/>
-      <c r="G182" s="182"/>
-      <c r="H182" s="182"/>
-      <c r="I182" s="182"/>
-      <c r="J182" s="182"/>
-      <c r="K182" s="182"/>
-      <c r="L182" s="182"/>
-      <c r="M182" s="182"/>
-      <c r="N182" s="182"/>
-      <c r="O182" s="182"/>
-      <c r="P182" s="180">
+      <c r="F182" s="166"/>
+      <c r="G182" s="166"/>
+      <c r="H182" s="166"/>
+      <c r="I182" s="166"/>
+      <c r="J182" s="166"/>
+      <c r="K182" s="166"/>
+      <c r="L182" s="166"/>
+      <c r="M182" s="166"/>
+      <c r="N182" s="166"/>
+      <c r="O182" s="166"/>
+      <c r="P182" s="164">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A183" s="178">
+      <c r="A183" s="162">
         <v>45679</v>
       </c>
-      <c r="B183" s="179" t="s">
+      <c r="B183" s="163" t="s">
         <v>79</v>
       </c>
-      <c r="C183" s="180">
+      <c r="C183" s="164">
         <v>4</v>
       </c>
-      <c r="D183" s="179"/>
-      <c r="E183" s="181" t="s">
+      <c r="D183" s="163"/>
+      <c r="E183" s="165" t="s">
         <v>78</v>
       </c>
-      <c r="F183" s="182"/>
-      <c r="G183" s="182"/>
-      <c r="H183" s="182"/>
-      <c r="I183" s="182"/>
-      <c r="J183" s="182"/>
-      <c r="K183" s="182"/>
-      <c r="L183" s="182"/>
-      <c r="M183" s="182"/>
-      <c r="N183" s="182"/>
-      <c r="O183" s="182"/>
-      <c r="P183" s="180">
+      <c r="F183" s="166"/>
+      <c r="G183" s="166"/>
+      <c r="H183" s="166"/>
+      <c r="I183" s="166"/>
+      <c r="J183" s="166"/>
+      <c r="K183" s="166"/>
+      <c r="L183" s="166"/>
+      <c r="M183" s="166"/>
+      <c r="N183" s="166"/>
+      <c r="O183" s="166"/>
+      <c r="P183" s="164">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -21871,96 +21871,96 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="157" t="s">
+      <c r="A1" s="168" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="155" t="s">
+      <c r="B1" s="178" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="168" t="s">
+      <c r="C1" s="180" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="155" t="s">
+      <c r="D1" s="178" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="155" t="s">
+      <c r="E1" s="178" t="s">
         <v>63</v>
       </c>
-      <c r="F1" s="155" t="s">
+      <c r="F1" s="178" t="s">
         <v>64</v>
       </c>
-      <c r="G1" s="155" t="s">
+      <c r="G1" s="178" t="s">
         <v>65</v>
       </c>
-      <c r="H1" s="155" t="s">
+      <c r="H1" s="178" t="s">
         <v>66</v>
       </c>
-      <c r="I1" s="155" t="s">
+      <c r="I1" s="178" t="s">
         <v>67</v>
       </c>
-      <c r="J1" s="155" t="s">
+      <c r="J1" s="178" t="s">
         <v>68</v>
       </c>
-      <c r="K1" s="155" t="s">
+      <c r="K1" s="178" t="s">
         <v>69</v>
       </c>
-      <c r="L1" s="155" t="s">
+      <c r="L1" s="178" t="s">
         <v>70</v>
       </c>
-      <c r="M1" s="155" t="s">
+      <c r="M1" s="178" t="s">
         <v>71</v>
       </c>
-      <c r="N1" s="155" t="s">
+      <c r="N1" s="178" t="s">
         <v>72</v>
       </c>
-      <c r="O1" s="155" t="s">
+      <c r="O1" s="178" t="s">
         <v>73</v>
       </c>
-      <c r="P1" s="155" t="s">
+      <c r="P1" s="178" t="s">
         <v>74</v>
       </c>
-      <c r="Q1" s="155" t="s">
+      <c r="Q1" s="178" t="s">
         <v>75</v>
       </c>
-      <c r="R1" s="155" t="s">
+      <c r="R1" s="178" t="s">
         <v>76</v>
       </c>
-      <c r="S1" s="159" t="b">
-        <v>1</v>
-      </c>
-      <c r="T1" s="161" t="s">
+      <c r="S1" s="170" t="b">
+        <v>1</v>
+      </c>
+      <c r="T1" s="172" t="s">
         <v>9</v>
       </c>
-      <c r="U1" s="163" t="s">
+      <c r="U1" s="174" t="s">
         <v>17</v>
       </c>
-      <c r="V1" s="165" t="s">
+      <c r="V1" s="176" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="158"/>
-      <c r="B2" s="167"/>
-      <c r="C2" s="169"/>
-      <c r="D2" s="156"/>
-      <c r="E2" s="170"/>
-      <c r="F2" s="156"/>
-      <c r="G2" s="156"/>
-      <c r="H2" s="156"/>
-      <c r="I2" s="156"/>
-      <c r="J2" s="156"/>
-      <c r="K2" s="156"/>
-      <c r="L2" s="156"/>
-      <c r="M2" s="156"/>
-      <c r="N2" s="156"/>
-      <c r="O2" s="156"/>
-      <c r="P2" s="156"/>
-      <c r="Q2" s="156"/>
-      <c r="R2" s="156"/>
-      <c r="S2" s="160"/>
-      <c r="T2" s="162"/>
-      <c r="U2" s="164"/>
-      <c r="V2" s="166"/>
+      <c r="A2" s="169"/>
+      <c r="B2" s="179"/>
+      <c r="C2" s="181"/>
+      <c r="D2" s="182"/>
+      <c r="E2" s="183"/>
+      <c r="F2" s="182"/>
+      <c r="G2" s="182"/>
+      <c r="H2" s="182"/>
+      <c r="I2" s="182"/>
+      <c r="J2" s="182"/>
+      <c r="K2" s="182"/>
+      <c r="L2" s="182"/>
+      <c r="M2" s="182"/>
+      <c r="N2" s="182"/>
+      <c r="O2" s="182"/>
+      <c r="P2" s="182"/>
+      <c r="Q2" s="182"/>
+      <c r="R2" s="182"/>
+      <c r="S2" s="171"/>
+      <c r="T2" s="173"/>
+      <c r="U2" s="175"/>
+      <c r="V2" s="177"/>
     </row>
     <row r="3" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="122" t="s">
@@ -22799,6 +22799,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="S1:S2"/>
     <mergeCell ref="T1:T2"/>
@@ -22815,12 +22821,6 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
